--- a/officer/templates/student_template.xlsx
+++ b/officer/templates/student_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Activity\officer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDFE313-9C7A-4792-8D54-EFFC97902542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CEECB5-C60F-4469-ABCE-D06B1FA931B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>รหัสนักศึกษา</t>
   </si>
@@ -58,24 +58,43 @@
   </si>
   <si>
     <t>รหัสอาจารย์ที่ปรึกษา</t>
+  </si>
+  <si>
+    <t>วันเกิด</t>
+  </si>
+  <si>
+    <t>แผนการเรียน</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -97,15 +116,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,27 +408,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="6" width="33.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="33.75" style="1" customWidth="1"/>
     <col min="7" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="10" width="18.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="18.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -422,20 +450,35 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/officer/templates/student_template.xlsx
+++ b/officer/templates/student_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Activity\officer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CEECB5-C60F-4469-ABCE-D06B1FA931B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E554D32C-D446-43C0-8637-6BB92507543A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -410,67 +410,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="6" width="33.75" style="1" customWidth="1"/>
-    <col min="7" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="41.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="6" width="33.75" style="2" customWidth="1"/>
+    <col min="7" max="8" width="22" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/officer/templates/student_template.xlsx
+++ b/officer/templates/student_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Activity\officer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E554D32C-D446-43C0-8637-6BB92507543A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45C5A0-386A-4CC3-B342-B10E428E4AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>สัญชาติ</t>
   </si>
   <si>
-    <t>รหัสหลักสูตร</t>
-  </si>
-  <si>
     <t>รหัสสาขา</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>สถานะ</t>
+  </si>
+  <si>
+    <t>หลักสูตร</t>
   </si>
 </sst>
 </file>
@@ -74,27 +74,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +118,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -411,26 +411,26 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="6" width="33.75" style="2" customWidth="1"/>
+    <col min="5" max="6" width="33.7109375" style="2" customWidth="1"/>
     <col min="7" max="8" width="22" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="35.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="28.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.125" style="2"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -459,25 +459,25 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
     </row>
   </sheetData>
